--- a/TODO/3-Saturday/Marketing.xlsx
+++ b/TODO/3-Saturday/Marketing.xlsx
@@ -155,7 +155,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -334,13 +334,13 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1325,14 +1325,14 @@
     </row>
     <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="14"/>
       <c r="P12" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1468,7 +1468,7 @@
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="26">
         <f>C28/12</f>
         <v>0.82125000000000004</v>
       </c>
@@ -1497,15 +1497,15 @@
         <v>2</v>
       </c>
       <c r="C33" s="7">
-        <f>C32</f>
+        <f t="shared" ref="C33:C43" si="6">C32</f>
         <v>8333.3333333333339</v>
       </c>
       <c r="D33" s="7">
-        <f>D32+C33</f>
+        <f t="shared" ref="D33:D43" si="7">D32+C33</f>
         <v>16666.666666666668</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" ref="E33:E43" si="6">D33*$C$30</f>
+        <f t="shared" ref="E33:E43" si="8">D33*$C$30</f>
         <v>13687.500000000002</v>
       </c>
     </row>
@@ -1514,15 +1514,15 @@
         <v>3</v>
       </c>
       <c r="C34" s="7">
-        <f>C33</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D34" s="7">
-        <f>D33+C34</f>
+        <f t="shared" si="7"/>
         <v>25000</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20531.25</v>
       </c>
     </row>
@@ -1531,15 +1531,15 @@
         <v>4</v>
       </c>
       <c r="C35" s="7">
-        <f>C34</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D35" s="7">
-        <f>D34+C35</f>
+        <f t="shared" si="7"/>
         <v>33333.333333333336</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27375.000000000004</v>
       </c>
     </row>
@@ -1548,15 +1548,15 @@
         <v>5</v>
       </c>
       <c r="C36" s="7">
-        <f>C35</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D36" s="7">
-        <f>D35+C36</f>
+        <f t="shared" si="7"/>
         <v>41666.666666666672</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34218.750000000007</v>
       </c>
     </row>
@@ -1565,15 +1565,15 @@
         <v>6</v>
       </c>
       <c r="C37" s="7">
-        <f>C36</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D37" s="7">
-        <f>D36+C37</f>
+        <f t="shared" si="7"/>
         <v>50000.000000000007</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>41062.500000000007</v>
       </c>
     </row>
@@ -1582,15 +1582,15 @@
         <v>7</v>
       </c>
       <c r="C38" s="7">
-        <f>C37</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D38" s="7">
-        <f>D37+C38</f>
+        <f t="shared" si="7"/>
         <v>58333.333333333343</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47906.250000000007</v>
       </c>
     </row>
@@ -1599,15 +1599,15 @@
         <v>8</v>
       </c>
       <c r="C39" s="7">
-        <f>C38</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D39" s="7">
-        <f>D38+C39</f>
+        <f t="shared" si="7"/>
         <v>66666.666666666672</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54750.000000000007</v>
       </c>
     </row>
@@ -1616,15 +1616,15 @@
         <v>9</v>
       </c>
       <c r="C40" s="7">
-        <f>C39</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D40" s="7">
-        <f>D39+C40</f>
+        <f t="shared" si="7"/>
         <v>75000</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61593.75</v>
       </c>
     </row>
@@ -1633,15 +1633,15 @@
         <v>10</v>
       </c>
       <c r="C41" s="7">
-        <f>C40</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D41" s="7">
-        <f>D40+C41</f>
+        <f t="shared" si="7"/>
         <v>83333.333333333328</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>68437.5</v>
       </c>
     </row>
@@ -1650,15 +1650,15 @@
         <v>11</v>
       </c>
       <c r="C42" s="7">
-        <f>C41</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D42" s="7">
-        <f>D41+C42</f>
+        <f t="shared" si="7"/>
         <v>91666.666666666657</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>75281.25</v>
       </c>
     </row>
@@ -1667,15 +1667,15 @@
         <v>12</v>
       </c>
       <c r="C43" s="7">
-        <f>C42</f>
+        <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="D43" s="7">
-        <f>D42+C43</f>
+        <f t="shared" si="7"/>
         <v>99999.999999999985</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>82124.999999999985</v>
       </c>
     </row>
@@ -1683,6 +1683,414 @@
       <c r="E44" s="7">
         <f>SUM(E32:E43)</f>
         <v>533812.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7">
+        <f>C43*0.5</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D46" s="7">
+        <f>D43+C46</f>
+        <v>104166.66666666666</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" ref="E46:E47" si="9">D46*$C$30</f>
+        <v>85546.875</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="7">
+        <f>C46</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D47" s="7">
+        <f>D46+C47</f>
+        <v>108333.33333333333</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="9"/>
+        <v>88968.75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <f>C47</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D48" s="7">
+        <f>D47+C48</f>
+        <v>112500</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" ref="E48:E60" si="10">D48*$C$30</f>
+        <v>92390.625</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7">
+        <f>C48</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D49" s="7">
+        <f>D48+C49</f>
+        <v>116666.66666666667</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="10"/>
+        <v>95812.500000000015</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7">
+        <f>C49</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D50" s="7">
+        <f>D49+C50</f>
+        <v>120833.33333333334</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="10"/>
+        <v>99234.375000000015</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7">
+        <f>C50</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D51" s="7">
+        <f>D50+C51</f>
+        <v>125000.00000000001</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="10"/>
+        <v>102656.25000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" s="7">
+        <f>C51*0.5</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D52" s="7">
+        <f>D51+C52</f>
+        <v>127083.33333333334</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="10"/>
+        <v>104367.18750000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7">
+        <f>C52</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D53" s="7">
+        <f>D52+C53</f>
+        <v>129166.66666666667</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="10"/>
+        <v>106078.12500000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="7">
+        <f>C53</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D54" s="7">
+        <f>D53+C54</f>
+        <v>131250</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="10"/>
+        <v>107789.0625</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>10</v>
+      </c>
+      <c r="C55" s="7">
+        <f>C54</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D55" s="7">
+        <f>D54+C55</f>
+        <v>133333.33333333334</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="10"/>
+        <v>109500.00000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>11</v>
+      </c>
+      <c r="C56" s="7">
+        <f>C55</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D56" s="7">
+        <f>D55+C56</f>
+        <v>135416.66666666669</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="10"/>
+        <v>111210.93750000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>12</v>
+      </c>
+      <c r="C57" s="7">
+        <f>C56</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D57" s="7">
+        <f>D56+C57</f>
+        <v>137500.00000000003</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="10"/>
+        <v>112921.87500000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <f>C57</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D59" s="7">
+        <f>D57+C59</f>
+        <v>139583.33333333337</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="10"/>
+        <v>114632.81250000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7">
+        <f>C59</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D60" s="7">
+        <f>D59+C60</f>
+        <v>141666.66666666672</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="10"/>
+        <v>116343.75000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <f t="shared" ref="C61:C70" si="11">C60</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" ref="D61:D70" si="12">D60+C61</f>
+        <v>143750.00000000006</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" ref="E61:E70" si="13">D61*$C$30</f>
+        <v>118054.68750000006</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" si="12"/>
+        <v>145833.3333333334</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="13"/>
+        <v>119765.62500000006</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D63" s="7">
+        <f t="shared" si="12"/>
+        <v>147916.66666666674</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="13"/>
+        <v>121476.56250000007</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D64" s="7">
+        <f t="shared" si="12"/>
+        <v>150000.00000000009</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="13"/>
+        <v>123187.50000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>7</v>
+      </c>
+      <c r="C65" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D65" s="7">
+        <f t="shared" si="12"/>
+        <v>152083.33333333343</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="13"/>
+        <v>124898.43750000009</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" si="12"/>
+        <v>154166.66666666677</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" si="13"/>
+        <v>126609.37500000009</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="12"/>
+        <v>156250.00000000012</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="13"/>
+        <v>128320.3125000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>10</v>
+      </c>
+      <c r="C68" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="12"/>
+        <v>158333.33333333346</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="13"/>
+        <v>130031.25000000012</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>11</v>
+      </c>
+      <c r="C69" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="12"/>
+        <v>160416.6666666668</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="13"/>
+        <v>131742.18750000012</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>12</v>
+      </c>
+      <c r="C70" s="7">
+        <f t="shared" si="11"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="12"/>
+        <v>162500.00000000015</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" si="13"/>
+        <v>133453.12500000012</v>
       </c>
     </row>
   </sheetData>
@@ -1722,22 +2130,22 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="C2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="F2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="I2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -1849,22 +2257,22 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="H10" s="27" t="s">
+      <c r="F10" s="28"/>
+      <c r="H10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="K10" s="27" t="s">
+      <c r="I10" s="28"/>
+      <c r="K10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
